--- a/Data/model_outputs_baseline/UFA/carbon_emissions_SFH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/carbon_emissions_SFH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4153030063.574828</v>
+        <v>4141880839.582011</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3649697903.889321</v>
+        <v>3639899944.886452</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3224743664.61707</v>
+        <v>3216086453.393343</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2861380519.07389</v>
+        <v>2853698518.694153</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2550861514.348329</v>
+        <v>2544013353.193892</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2284766307.513806</v>
+        <v>2278632516.37375</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2056130064.832743</v>
+        <v>2050610037.735209</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1859173506.228747</v>
+        <v>1854182682.847176</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1689089264.631735</v>
+        <v>1684555674.062206</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1541865221.137</v>
+        <v>1537726819.147958</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1414142716.632865</v>
+        <v>1410347347.116168</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1303102946.103477</v>
+        <v>1299605301.306443</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1206372107.697408</v>
+        <v>1203134142.191413</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1121946342.022975</v>
+        <v>1118934968.443242</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1048129279.644195</v>
+        <v>1045315537.616612</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>983480469.2986686</v>
+        <v>980840013.5400019</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>926773384.6392851</v>
+        <v>924285653.2875452</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>876962235.9556028</v>
+        <v>874608116.7244382</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>833151423.2932731</v>
+        <v>830914830.7763199</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>794572828.1882043</v>
+        <v>792439594.191361</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>760566445.0951564</v>
+        <v>758524548.1766808</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>730562615.0800231</v>
+        <v>728601552.2654536</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>704070467.5935526</v>
+        <v>702180027.9038781</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>680665233.0457445</v>
+        <v>678836977.8906674</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>659976690.4221792</v>
+        <v>658204077.6811855</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>641684840.9889241</v>
+        <v>639961656.7330161</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>625511358.8304422</v>
+        <v>623831494.462548</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>611212898.8622215</v>
+        <v>609571346.506272</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>598576708.7983599</v>
+        <v>596968814.8024459</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>587417364.6801196</v>
+        <v>585839097.5766263</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>577571321.8273618</v>
+        <v>576019284.53178</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>568896565.4472992</v>
+        <v>567368610.8031687</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>561267513.9318193</v>
+        <v>559759994.1025655</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>554573330.5095462</v>
+        <v>553084277.5683703</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>548717438.7133869</v>
+        <v>547243820.2421705</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>543613632.8470907</v>
+        <v>542153186.3984141</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>539185802.9039394</v>
+        <v>537737962.2627561</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>535367877.8057684</v>
+        <v>533930320.6929096</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>532099687.4287748</v>
+        <v>530671605.774815</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>529329916.5179853</v>
+        <v>527909093.0784749</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>527012579.6474279</v>
+        <v>525598432.3107855</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>525105639.6858773</v>
+        <v>523696331.4953743</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>523573338.5443525</v>
+        <v>522167541.4510265</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>522382592.798821</v>
+        <v>520979819.6730787</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>521504630.5417325</v>
+        <v>520104467.4606404</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>520915118.3719938</v>
+        <v>519516637.3446957</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>520590805.4317867</v>
+        <v>519192734.1683708</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>520509997.3537109</v>
+        <v>519112792.1046227</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>520657224.7608684</v>
+        <v>519259895.0002561</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>521015811.2364094</v>
+        <v>519617572.8791252</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>521571684.3466194</v>
+        <v>520172361.7183704</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>522311073.1370145</v>
+        <v>520910699.2940439</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>523225002.2121305</v>
+        <v>521822248.5898712</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>524303799.3033024</v>
+        <v>522897180.845689</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>525536922.0064381</v>
+        <v>524127060.418371</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>526917559.6258695</v>
+        <v>525503327.6960568</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>528437639.2253045</v>
+        <v>527019433.4168054</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>530092774.2957447</v>
+        <v>528669353.0281432</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>531877367.3394716</v>
+        <v>530448618.9532102</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>533785599.2019159</v>
+        <v>532352235.1873692</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>535814266.2814684</v>
+        <v>534375575.4646581</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>537960097.0239022</v>
+        <v>536515985.0802282</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>540219785.5193359</v>
+        <v>538769719.3333088</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>542589822.2803041</v>
+        <v>541133765.2087691</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>545068736.9138726</v>
+        <v>543605137.9756143</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>547654346.8327957</v>
+        <v>546183108.9010938</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>550344915.769668</v>
+        <v>548865754.9286201</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>553137835.6774234</v>
+        <v>551651688.8288633</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>556032120.5297362</v>
+        <v>554539515.9105911</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>559028293.1799004</v>
+        <v>557527889.4846796</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>562123927.0893437</v>
+        <v>560615735.3651768</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>565318679.6191835</v>
+        <v>563802495.1008412</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>568611909.5355108</v>
+        <v>567086308.4462115</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>572002540.6536825</v>
+        <v>570468954.4376684</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>575490429.381727</v>
+        <v>573947415.5553107</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>579074869.6389978</v>
+        <v>577522589.8164711</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>582755794.7591915</v>
+        <v>581194511.7255824</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>586534459.3523908</v>
+        <v>584962450.8333522</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>590408459.0312545</v>
+        <v>588825737.9067396</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>594378797.7873282</v>
+        <v>592785013.6987754</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>598443824.310848</v>
+        <v>596839164.0650203</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>602604575.3788584</v>
+        <v>600988874.1263365</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>606860725.9549127</v>
+        <v>605233803.5376256</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>611210823.9536929</v>
+        <v>609572450.2127244</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>615655080.2063003</v>
+        <v>614005312.343982</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>620194786.6859704</v>
+        <v>618532571.2851112</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>624828706.979681</v>
+        <v>623153792.6145017</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>629555728.7008036</v>
+        <v>627867893.1473114</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>634377374.599553</v>
+        <v>632676747.1670746</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>639293090.4560293</v>
+        <v>637578477.6612706</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>644301063.9151145</v>
+        <v>642573100.4950912</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>649401369.9098442</v>
+        <v>647660347.5240403</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>654594396.323332</v>
+        <v>652839822.258332</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>659879060.2462393</v>
+        <v>658110857.620122</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>665254707.1012559</v>
+        <v>663472510.5262467</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>670721928.0886376</v>
+        <v>668924265.9221208</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>676279112.3081645</v>
+        <v>674466323.4716469</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>681925347.2963564</v>
+        <v>680096460.8217065</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>687659900.1880064</v>
+        <v>685815753.1553998</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>693480510.9496173</v>
+        <v>691620707.0774209</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>699390132.8376293</v>
+        <v>697513739.953422</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>705384221.0057265</v>
+        <v>703491298.8238604</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>711463606.7619299</v>
+        <v>709554345.9191552</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>717627515.1535342</v>
+        <v>715701541.4683869</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>723874337.0502927</v>
+        <v>721931420.7998463</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>730203819.5888189</v>
+        <v>728243610.7908902</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>736612961.0476031</v>
+        <v>734636620.5301796</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>743103686.2863475</v>
+        <v>741109524.0629654</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>749672259.694769</v>
+        <v>747660672.3022112</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>756319387.6932876</v>
+        <v>754290195.6073457</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>763042527.3315217</v>
+        <v>760995170.9225075</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>769841859.7694591</v>
+        <v>767776019.5927742</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>776714412.8556252</v>
+        <v>774631222.7309419</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>783661418.7280452</v>
+        <v>781558992.3836215</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>790680412.8156843</v>
+        <v>788559972.911147</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>797771016.1601887</v>
+        <v>795631278.1386907</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>804932023.522961</v>
+        <v>802773230.3066654</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>812162925.55966</v>
+        <v>809984606.6886132</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>819462441.8035367</v>
+        <v>817263437.9553438</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>826829136.5250752</v>
+        <v>824609860.4585636</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>834262349.0839183</v>
+        <v>832022949.074422</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>841762346.4873134</v>
+        <v>839502716.1317096</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>849326988.3885127</v>
+        <v>847047331.5551817</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>856956763.1598902</v>
+        <v>854656211.2202113</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>864651160.0991182</v>
+        <v>862329842.0109829</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>872409014.8333099</v>
+        <v>870067604.8898375</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>880231135.7913203</v>
+        <v>877869832.8766556</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>888117835.246828</v>
+        <v>885735454.8435535</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>896068707.679671</v>
+        <v>893664966.9695873</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>904083855.2568408</v>
+        <v>901658750.3707192</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>912163373.7295859</v>
+        <v>909716537.2315648</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>920309017.9892743</v>
+        <v>917840131.3539323</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>928519224.5058957</v>
+        <v>926029085.1137587</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>936796997.4072502</v>
+        <v>934284508.7243842</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>945143533.1173918</v>
+        <v>942608223.7172015</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>953559385.1798263</v>
+        <v>951001254.0706381</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>962046165.055346</v>
+        <v>959465271.0974717</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>970606430.2555172</v>
+        <v>968002577.4914129</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>979241477.6524501</v>
+        <v>976615018.620796</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>987954376.9573178</v>
+        <v>985304254.3759797</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>996748211.2298052</v>
+        <v>994073773.8505707</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1005624724.991697</v>
+        <v>1002925928.330789</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1014585554.032888</v>
+        <v>1011863209.480592</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1023635079.803311</v>
+        <v>1020889456.24562</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1032779643.210065</v>
+        <v>1030009226.64931</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1042021120.859065</v>
+        <v>1039226263.15739</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1051363905.798671</v>
+        <v>1048543935.978758</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1060812524.589529</v>
+        <v>1057967653.300545</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1070372133.752999</v>
+        <v>1067502049.4524</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1080048559.18765</v>
+        <v>1077151652.35805</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1089846315.738262</v>
+        <v>1086922915.236811</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1099771840.782842</v>
+        <v>1096821836.464877</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1109830568.374661</v>
+        <v>1106853832.146315</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1120029727.853875</v>
+        <v>1117026157.511539</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1130376421.241549</v>
+        <v>1127344478.004983</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1140878117.283179</v>
+        <v>1137818610.227703</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1151541765.558842</v>
+        <v>1148453139.725199</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1162376583.148327</v>
+        <v>1159258909.342472</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1173388497.075883</v>
+        <v>1170241803.996741</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1184586467.655035</v>
+        <v>1181411086.036848</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1195982819.57295</v>
+        <v>1192775992.614515</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1207583996.971303</v>
+        <v>1204345595.382445</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1219400658.020477</v>
+        <v>1216129188.256212</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1231440980.186189</v>
+        <v>1228137072.557866</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1243715723.461573</v>
+        <v>1240379987.822152</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1256237128.453998</v>
+        <v>1252866660.876645</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1269014581.939783</v>
+        <v>1265610194.951208</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1282059573.441809</v>
+        <v>1278620282.814516</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1295382574.225091</v>
+        <v>1291908208.186325</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1308996386.96777</v>
+        <v>1305485736.072466</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1322912341.681743</v>
+        <v>1319364145.3996</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1337143624.715749</v>
+        <v>1333557419.330968</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1351700840.119065</v>
+        <v>1348075989.301785</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1366597894.413596</v>
+        <v>1362933080.57527</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1381846983.572752</v>
+        <v>1378141580.965685</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1397459922.12433</v>
+        <v>1393713282.892584</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1413450989.583651</v>
+        <v>1409662077.016157</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1429833471.748696</v>
+        <v>1426000660.42566</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1446621034.68274</v>
+        <v>1442743561.878215</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1463826569.885219</v>
+        <v>1459902263.463614</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1481463113.284308</v>
+        <v>1477491618.760889</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1499544065.86184</v>
+        <v>1495524901.199831</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1518083592.434165</v>
+        <v>1514014223.136029</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1537094956.604132</v>
+        <v>1532974690.03554</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1556592263.053149</v>
+        <v>1552419112.41251</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1576587598.026018</v>
+        <v>1572360463.290457</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1597095551.680692</v>
+        <v>1592812819.165274</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1618127267.420569</v>
+        <v>1613788433.553497</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1639698556.706501</v>
+        <v>1635301752.029774</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1661821544.716769</v>
+        <v>1657365166.887821</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1684508917.657367</v>
+        <v>1679991520.628346</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1707773965.921483</v>
+        <v>1703193933.171126</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1731629177.417092</v>
+        <v>1726985304.646538</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1756088163.571146</v>
+        <v>1751377660.573175</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1781161000.123363</v>
+        <v>1776384046.078456</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1806861297.68091</v>
+        <v>1802015547.304375</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1833200637.70395</v>
+        <v>1828283930.573733</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1860190860.466544</v>
+        <v>1855202216.767013</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1887843038.728448</v>
+        <v>1882780973.380786</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1916169435.34095</v>
+        <v>1911031102.10599</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1945179524.649335</v>
+        <v>1939964150.099923</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1974886193.833941</v>
+        <v>1969589886.930958</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>2005297299.703104</v>
+        <v>1999919238.288748</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2036425005.521851</v>
+        <v>2030963234.527749</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2068278435.22597</v>
+        <v>2062731292.241886</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2100868520.541956</v>
+        <v>2095233603.33134</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2134202478.663952</v>
+        <v>2128477707.29162</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2168290187.943946</v>
+        <v>2162474625.379054</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2203141442.018158</v>
+        <v>2197233252.00351</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2238765193.032133</v>
+        <v>2232761397.837715</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2275168998.486796</v>
+        <v>2269068464.648673</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2312361481.497114</v>
+        <v>2306162089.287636</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2350350367.683446</v>
+        <v>2344049023.858562</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2389143888.126812</v>
+        <v>2382737395.531624</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2428749136.601072</v>
+        <v>2422236642.495847</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2469174179.877756</v>
+        <v>2462553817.995762</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2510425537.414008</v>
+        <v>2503695192.776937</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2552511702.304161</v>
+        <v>2545668471.191944</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2595436883.389347</v>
+        <v>2588478840.658266</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2639209423.141959</v>
+        <v>2632133628.154657</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2683835286.291228</v>
+        <v>2676639570.984188</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2729319980.470675</v>
+        <v>2722003484.682685</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2775671871.877964</v>
+        <v>2768231501.295398</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2822896323.473307</v>
+        <v>2815328675.042132</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2870997920.256414</v>
+        <v>2863301342.110682</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2919983897.328514</v>
+        <v>2912155970.988777</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2969860142.220472</v>
+        <v>2961897575.32268</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3020630932.578246</v>
+        <v>3012531568.900649</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3072302118.584034</v>
+        <v>3064064633.04002</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3124879737.437269</v>
+        <v>3116500969.173509</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3178369526.490265</v>
+        <v>3169847854.871421</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3232775354.111058</v>
+        <v>3224107476.166147</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3288104792.794031</v>
+        <v>3279287674.94417</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3344359929.152761</v>
+        <v>3335391917.962713</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3401547285.269018</v>
+        <v>3392427636.813099</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3459675393.357566</v>
+        <v>3450398509.560041</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3518745117.011734</v>
+        <v>3509310090.789469</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3578764313.697065</v>
+        <v>3569168873.17504</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3639736210.766205</v>
+        <v>3629976981.900003</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3701669464.668397</v>
+        <v>3691742223.947255</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>3764565081.421447</v>
+        <v>3754469023.988365</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3828430961.132905</v>
+        <v>3818163124.660113</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>3893272622.29083</v>
+        <v>3882831015.356917</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>3959093269.938021</v>
+        <v>3948475618.634755</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4025901880.412128</v>
+        <v>4015103968.111679</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4093699988.846553</v>
+        <v>4082720780.125021</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4162497148.096592</v>
+        <v>4151333498.599977</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4232296477.059183</v>
+        <v>4220945891.942604</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4303105001.10153</v>
+        <v>4291564789.964384</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4374928747.692399</v>
+        <v>4363195834.262484</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>4447773994.971526</v>
+        <v>4435845963.382668</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4521646250.042517</v>
+        <v>4509519843.828049</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4596551697.193809</v>
+        <v>4584225006.702085</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4672498799.131449</v>
+        <v>4659968349.439868</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4749492760.096761</v>
+        <v>4736755467.13062</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>4827539740.403286</v>
+        <v>4814593517.174785</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>4906648832.978966</v>
+        <v>4893489317.728333</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4986825454.430375</v>
+        <v>4973449358.5277</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5068080204.341459</v>
+        <v>5054483265.222879</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5150415125.02047</v>
+        <v>5136597903.242538</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5233840775.707048</v>
+        <v>5219800875.257665</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5318366024.421436</v>
+        <v>5304098377.082028</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5403998720.501743</v>
+        <v>5389500316.219756</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5490747026.938864</v>
+        <v>5476015650.297276</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>5578619439.603382</v>
+        <v>5563652085.63484</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5667625015.120289</v>
+        <v>5652418738.463714</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5757771467.142603</v>
+        <v>5742322493.711637</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5849070273.496708</v>
+        <v>5833376616.664589</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5941531811.776784</v>
+        <v>5925587850.701471</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>6035162434.96649</v>
+        <v>6018969440.549177</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6129976273.891041</v>
+        <v>6113527628.656866</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6225981444.379512</v>
+        <v>6209275824.925728</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>6323189774.447901</v>
+        <v>6306223888.360609</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>6421612394.324835</v>
+        <v>6404383191.611515</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>6521260358.179084</v>
+        <v>6503763413.40288</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6622145881.286676</v>
+        <v>6604377436.034792</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>6724280530.604634</v>
+        <v>6706238716.17421</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>6827677050.94925</v>
+        <v>6809358591.571945</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>6932349347.479728</v>
+        <v>6913749117.523146</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7038308776.588997</v>
+        <v>7019423626.301926</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7145569174.552124</v>
+        <v>7126394794.347322</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7254144583.899366</v>
+        <v>7234678330.23735</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>7364048128.893217</v>
+        <v>7344287848.658573</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7475296157.478012</v>
+        <v>7455236578.522098</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>7587901054.666883</v>
+        <v>7567539883.399546</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7701878760.694703</v>
+        <v>7681212805.83008</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>7817246847.754049</v>
+        <v>7796270439.220373</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>7934019937.563052</v>
+        <v>7912729446.925823</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>8052212773.313353</v>
+        <v>8030606783.492876</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8171843991.431319</v>
+        <v>8149916718.716896</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>8292929447.313309</v>
+        <v>8270676787.050383</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>8415486251.353037</v>
+        <v>8392905029.148075</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>8539531450.352945</v>
+        <v>8516618422.912101</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>8665085069.211571</v>
+        <v>8641835188.734783</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>8792165219.463614</v>
+        <v>8768572982.566509</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>8920789450.957451</v>
+        <v>8896853176.799389</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>9050977271.47578</v>
+        <v>9026690864.230366</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>9182748717.427555</v>
+        <v>9158108362.47883</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>9316121761.244625</v>
+        <v>9291123039.557186</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>9451117443.768681</v>
+        <v>9425757042.983902</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>9587757128.170937</v>
+        <v>9562029052.693914</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>9673152066.714077</v>
+        <v>9651513842.653748</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>9759667102.600681</v>
+        <v>9742160095.232052</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>9847286832.543718</v>
+        <v>9833958112.445749</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>9936037642.846031</v>
+        <v>9926932017.761353</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>10025930150.82917</v>
+        <v>10021094826.05681</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>10116974411.18495</v>
+        <v>10116458263.29644</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>10209185440.68555</v>
+        <v>10213033514.6064</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>10302575000.17875</v>
+        <v>10310837197.92662</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>10397154243.93314</v>
+        <v>10409879995.88935</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>10492935974.1752</v>
+        <v>10510175824.17319</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>10589934107.11657</v>
+        <v>10611738700.7477</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>10688159632.85041</v>
+        <v>10714580414.22521</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>10787626485.4545</v>
+        <v>10818716611.25568</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>10888348428.3274</v>
+        <v>10924160400.007</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>10990336120.0048</v>
+        <v>11030925813.60017</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>11093604504.82127</v>
+        <v>11139025648.60834</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>11198166336.7866</v>
+        <v>11248472701.35888</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>11304033100.68937</v>
+        <v>11359282445.34098</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>11411218465.80534</v>
+        <v>11471468879.46521</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>11519736895.58476</v>
+        <v>11585042348.70998</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>11629599048.64913</v>
+        <v>11700018285.03927</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>11740817075.61164</v>
+        <v>11816409498.39276</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>11853402858.55814</v>
+        <v>11934228467.13881</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>11967368762.81549</v>
+        <v>12053488665.82514</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>12082727411.12299</v>
+        <v>12174202148.87884</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>12199488230.23797</v>
+        <v>12296378359.80694</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>12317662381.45749</v>
+        <v>12420031140.54482</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>12437261087.94296</v>
+        <v>12545171740.4595</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>12558295840.04016</v>
+        <v>12671808488.74183</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>12680774976.94497</v>
+        <v>12799954369.25679</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>12804707964.70528</v>
+        <v>12929619128.61821</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>12930103779.21975</v>
+        <v>13060810786.15044</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>13056969240.47109</v>
+        <v>13193538046.96638</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>13185312497.27564</v>
+        <v>13327809120.28487</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>13315138571.18117</v>
+        <v>13463630320.72641</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>13446458009.76126</v>
+        <v>13601008559.50691</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>13579273003.86009</v>
+        <v>13739949683.37833</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>13713590150.6881</v>
+        <v>13880460196.8125</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>13849412733.38235</v>
+        <v>14022543724.49766</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>13986742043.48517</v>
+        <v>14166201467.14355</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>14125581599.13013</v>
+        <v>14311436854.90554</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14265930729.95164</v>
+        <v>14458251385.34801</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>14407790760.25469</v>
+        <v>14606643869.42954</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>14551159922.55815</v>
+        <v>14756613681.25111</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>14696036337.44181</v>
+        <v>14908157830.22141</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>14842417024.97186</v>
+        <v>15061276299.82008</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>14990298311.25088</v>
+        <v>15215963568.82855</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>15139673910.96204</v>
+        <v>15372211768.73046</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>15290535909.28162</v>
+        <v>15530014599.45533</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>15442879062.43398</v>
+        <v>15689367271.00768</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>15596692870.35774</v>
+        <v>15850255793.62834</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>15751967208.74865</v>
+        <v>16012673364.78719</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>15908688761.69487</v>
+        <v>16176605246.05039</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>16066844314.52376</v>
+        <v>16342037280.17052</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>16226418247.99929</v>
+        <v>16508951872.44884</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>16376522593.70979</v>
+        <v>16669064736.37718</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>16527917819.3163</v>
+        <v>16830557356.94462</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>16680586339.49178</v>
+        <v>16993408682.96453</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>16834506007.31277</v>
+        <v>17157595326.86044</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>16989657886.66998</v>
+        <v>17323098449.85205</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>17146016779.56725</v>
+        <v>17489891832.47589</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>17303558868.40082</v>
+        <v>17657950986.37</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>17462257453.84714</v>
+        <v>17827247501.04427</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>17622084382.69472</v>
+        <v>17997751605.21301</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>17783012322.22406</v>
+        <v>18169434772.45998</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>17945009966.19058</v>
+        <v>18342264101.30741</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>18108044376.82124</v>
+        <v>18516205405.32536</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>18272084330.84834</v>
+        <v>18691223626.91843</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>18437092963.54638</v>
+        <v>18867283750.95123</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>18603032834.33588</v>
+        <v>19044344827.91248</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>18766235649.15205</v>
+        <v>19214780822.63718</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>18930270524.14997</v>
+        <v>19386091533.66333</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>19095098161.13986</v>
+        <v>19558233067.56683</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>19261063787.65829</v>
+        <v>19731561610.28301</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>19427725686.17654</v>
+        <v>19905622312.04094</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>19595040327.42344</v>
+        <v>20080369151.4651</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>19762961684.40295</v>
+        <v>20255754490.55876</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>19931441082.83966</v>
+        <v>20431730115.05769</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>20100435028.34305</v>
+        <v>20608246532.24428</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>20269891586.36333</v>
+        <v>20785254544.87842</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>20485484251.52876</v>
+        <v>20989426660.6438</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>20701639290.34845</v>
+        <v>21194100244.37227</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>20918295001.99802</v>
+        <v>21399217835.1313</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>21135393473.60556</v>
+        <v>21604718592.32121</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>21352871564.44637</v>
+        <v>21810541897.74754</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>21570666986.43201</v>
+        <v>22016626165.48265</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>21788066291.40938</v>
+        <v>22222246924.7672</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>21998031625.44119</v>
+        <v>22420228634.88807</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>22182617887.67999</v>
+        <v>22592302408.8978</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>22320886433.9411</v>
+        <v>22717179242.82353</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>22378159128.36976</v>
+        <v>22777164738.90178</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>22370240524.07124</v>
+        <v>22770733140.35091</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>22302624344.7645</v>
+        <v>22703465022.43083</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>22186596441.84737</v>
+        <v>22586844070.9185</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>22035764111.76048</v>
+        <v>22434720683.50644</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>21863568080.69033</v>
+        <v>22260777719.85202</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>21681842041.42808</v>
+        <v>22077069022.61277</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>21500191905.91822</v>
+        <v>21893379481.88584</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>21325899504.9709</v>
+        <v>21717129595.13636</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>21164113979.76995</v>
+        <v>21553567568.84775</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>20835082949.91572</v>
+        <v>21189103409.30684</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>20533388387.06807</v>
+        <v>20853071188.09725</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>20259137707.3494</v>
+        <v>20545536818.40018</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>20011541079.9491</v>
+        <v>20265653749.32735</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>19789219300.87248</v>
+        <v>20011965417.10542</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>19590428362.0969</v>
+        <v>19782647100.52662</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>19413234056.51157</v>
+        <v>19575684480.59135</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>19255639984.59374</v>
+        <v>19388996129.52087</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>19115662709.19335</v>
+        <v>19220524300.78172</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>18991396327.55326</v>
+        <v>19068292605.44265</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>18908499722.32634</v>
+        <v>18954410367.63439</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>18831999124.23787</v>
+        <v>18848520198.8198</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>18761285558.96545</v>
+        <v>18749770811.24859</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>18695592877.64927</v>
+        <v>18657223439.7995</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>18634222882.63435</v>
+        <v>18570024509.4989</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>18576544629.39745</v>
+        <v>18487403616.63496</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>18519956795.02974</v>
+        <v>18406659397.01471</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>18442286084.30681</v>
+        <v>18305746238.34754</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>18288577269.72531</v>
+        <v>18130337034.45636</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>17996609368.72369</v>
+        <v>17819187322.62203</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>17528003516.79269</v>
+        <v>17334797582.22181</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>16878529082.88015</v>
+        <v>16673443528.59152</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>16071615553.73167</v>
+        <v>15858624430.64947</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>15146213110.54389</v>
+        <v>14929015528.88927</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>14145920298.76463</v>
+        <v>13927727834.41638</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>13111706531.33991</v>
+        <v>12895158204.32423</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>12078090925.66809</v>
+        <v>11865242576.96154</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>11071811377.38583</v>
+        <v>10864190273.75394</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>10112017235.54027</v>
+        <v>9910689879.367279</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>9211224348.519958</v>
+        <v>9016881826.910744</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8376558949.734217</v>
+        <v>8189588641.12586</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>7611001188.026978</v>
+        <v>7431558579.599329</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>6914495593.371927</v>
+        <v>6742560944.081985</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>6284872960.51053</v>
+        <v>6120300757.174704</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>5718585678.990423</v>
+        <v>5561138475.266146</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>5211265547.117926</v>
+        <v>5060647885.127899</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>4758132420.410089</v>
+        <v>4614012999.621664</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>4354287695.092033</v>
+        <v>4216314158.99991</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>3994914763.810175</v>
+        <v>3862727722.349366</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>3675411300.311388</v>
+        <v>3548652895.365808</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>3391466511.747607</v>
+        <v>3269785818.115384</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>3139104325.893502</v>
+        <v>3022163689.216499</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>2914702157.992707</v>
+        <v>2802176627.387056</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>2714986135.654184</v>
+        <v>2606569618.139407</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>2537020943.160766</v>
+        <v>2432422565.319032</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>2378189192.814034</v>
+        <v>2277135710.873278</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>2236165756.092131</v>
+        <v>2138403001.916269</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>2108895981.265269</v>
+        <v>2014185370.686374</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>1994569576.790274</v>
+        <v>1902688355.345699</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>146859533.4845528</v>
+        <v>115621582.2512302</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_baseline/UFA/carbon_emissions_SFH_df.xlsx
+++ b/Data/model_outputs_baseline/UFA/carbon_emissions_SFH_df.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4141880839.582011</v>
+        <v>2278034622.634608</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3639899944.886452</v>
+        <v>2001945009.061937</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3216086453.393343</v>
+        <v>1768847825.584435</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2853698518.694153</v>
+        <v>1569534830.642641</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2544013353.193892</v>
+        <v>1399208312.408855</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2278632516.37375</v>
+        <v>1253249270.207714</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2050610037.735209</v>
+        <v>1127837071.045641</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1854182682.847176</v>
+        <v>1019802266.446111</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1684555674.062206</v>
+        <v>926507781.3979324</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1537726819.147958</v>
+        <v>845752431.6414591</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1410347347.116168</v>
+        <v>775694637.114532</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1299605301.306443</v>
+        <v>714787016.6733029</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1203134142.191413</v>
+        <v>661727903.945502</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1118934968.443242</v>
+        <v>615417960.0067565</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1045315537.616612</v>
+        <v>574927828.5251393</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>980840013.5400019</v>
+        <v>539466755.8954115</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>924285653.2875452</v>
+        <v>508362385.2647855</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>874608116.7244382</v>
+        <v>481039822.2178155</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>830914830.7763199</v>
+        <v>457007963.0940264</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>792439594.191361</v>
+        <v>435846704.3452482</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>758524548.1766808</v>
+        <v>417193659.3389324</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>728601552.2654536</v>
+        <v>400735684.1246244</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>702180027.9038781</v>
+        <v>386204541.5127327</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>678836977.8906674</v>
+        <v>373365616.6139355</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>658204077.6811855</v>
+        <v>362017426.446705</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>639961656.7330161</v>
+        <v>351984118.5358314</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>623831494.462548</v>
+        <v>343113051.1448769</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>609571346.506272</v>
+        <v>335270720.3279233</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>596968814.8024459</v>
+        <v>328340212.6825159</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>585839097.5766263</v>
+        <v>322220171.8908473</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>576019284.53178</v>
+        <v>316820189.5532771</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>567368610.8031687</v>
+        <v>312062703.63773</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>559759994.1025655</v>
+        <v>307878827.752521</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>553084277.5683703</v>
+        <v>304207627.0127025</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>547243820.2421705</v>
+        <v>300995751.9733821</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>542153186.3984141</v>
+        <v>298196920.7657983</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>537737962.2627561</v>
+        <v>295768400.7081689</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>533930320.6929096</v>
+        <v>293675186.9384321</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>530671605.774815</v>
+        <v>291883336.4416626</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>527909093.0784749</v>
+        <v>290364967.5067295</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>525598432.3107855</v>
+        <v>289094268.6750975</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>523696331.4953743</v>
+        <v>288048288.9919403</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>522167541.4510265</v>
+        <v>287208262.5124826</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>520979819.6730787</v>
+        <v>286556030.8376767</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>520104467.4606404</v>
+        <v>286075623.1300043</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>519516637.3446957</v>
+        <v>285753130.4624897</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>519192734.1683708</v>
+        <v>285575574.3199143</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>519112792.1046227</v>
+        <v>285533291.3479923</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>519259895.0002561</v>
+        <v>285614705.1484442</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>519617572.8791252</v>
+        <v>285812818.3841044</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>520172361.7183704</v>
+        <v>286117958.0086319</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>520910699.2940439</v>
+        <v>286524919.2918065</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>521822248.5898712</v>
+        <v>287028056.3204291</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>522897180.845689</v>
+        <v>287620681.6715699</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>524127060.418371</v>
+        <v>288298462.2279593</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>525503327.6960568</v>
+        <v>289055955.8872106</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>527019433.4168054</v>
+        <v>289891858.9286137</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>528669353.0281432</v>
+        <v>290801334.4732516</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>530448618.9532102</v>
+        <v>291781654.6674877</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>532352235.1873692</v>
+        <v>292830480.8183619</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>534375575.4646581</v>
+        <v>293945872.5753514</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>536515985.0802282</v>
+        <v>295126184.0654433</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>538769719.3333088</v>
+        <v>296367180.3310404</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>541133765.2087691</v>
+        <v>297669252.3929389</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>543605137.9756143</v>
+        <v>299031567.8100094</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>546183108.9010938</v>
+        <v>300451744.0281581</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>548865754.9286201</v>
+        <v>301929410.440972</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>551651688.8288633</v>
+        <v>303464199.6564394</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>554539515.9105911</v>
+        <v>305053755.8704777</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>557527889.4846796</v>
+        <v>306699169.5288164</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>560615735.3651768</v>
+        <v>308398969.8330113</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>563802495.1008412</v>
+        <v>310152718.9267533</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>567086308.4462115</v>
+        <v>311960758.0135186</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>570468954.4376684</v>
+        <v>313822905.1259571</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>573947415.5553107</v>
+        <v>315738302.4160956</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>577522589.8164711</v>
+        <v>317706378.710348</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>581194511.7255824</v>
+        <v>319727963.44989</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>584962450.8333522</v>
+        <v>321801596.5092706</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>588825737.9067396</v>
+        <v>323928897.6879374</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>592785013.6987754</v>
+        <v>326107837.9419457</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>596839164.0650203</v>
+        <v>328339351.9817831</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>600988874.1263365</v>
+        <v>330622602.4807827</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>605233803.5376256</v>
+        <v>332957216.8264191</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>609572450.2127244</v>
+        <v>335344416.7463942</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>614005312.343982</v>
+        <v>337783746.2212406</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>618532571.2851112</v>
+        <v>340275079.4789421</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>623153792.6145017</v>
+        <v>342817994.9327281</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>627867893.1473114</v>
+        <v>345412676.1468392</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>632676747.1670746</v>
+        <v>348058345.4485494</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>637578477.6612706</v>
+        <v>350755155.468789</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>642573100.4950912</v>
+        <v>353503112.8722454</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>647660347.5240403</v>
+        <v>356302156.1543595</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>652839822.258332</v>
+        <v>359152307.6351696</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>658110857.620122</v>
+        <v>362052798.5758119</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>663472510.5262467</v>
+        <v>365002895.7068802</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>668924265.9221208</v>
+        <v>368003665.349113</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>674466323.4716469</v>
+        <v>371053052.3844129</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>680096460.8217065</v>
+        <v>374151616.9161644</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>685815753.1553998</v>
+        <v>377299119.5660313</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>691620707.0774209</v>
+        <v>380494494.6927496</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>697513739.953422</v>
+        <v>383737019.2842424</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>703491298.8238604</v>
+        <v>387027556.1935879</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>709554345.9191552</v>
+        <v>390363828.5953186</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>715701541.4683869</v>
+        <v>393746391.641395</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>721931420.7998463</v>
+        <v>397175221.1426194</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>728243610.7908902</v>
+        <v>400649309.6033794</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>734636620.5301796</v>
+        <v>404166991.0596702</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>741109524.0629654</v>
+        <v>407728878.4033975</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>747660672.3022112</v>
+        <v>411333513.3016384</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>754290195.6073457</v>
+        <v>414981276.9160043</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>760995170.9225075</v>
+        <v>418670746.7259538</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>767776019.5927742</v>
+        <v>422400731.4248337</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>774631222.7309419</v>
+        <v>426171631.4349216</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>781558992.3836215</v>
+        <v>429983566.8767</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>788559972.911147</v>
+        <v>433835447.4408664</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>795631278.1386907</v>
+        <v>437725915.5839074</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>802773230.3066654</v>
+        <v>441655803.4293644</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>809984606.6886132</v>
+        <v>445623961.6275939</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>817263437.9553438</v>
+        <v>449629770.3578806</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>824609860.4585636</v>
+        <v>453672715.7818626</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>832022949.074422</v>
+        <v>457751893.9336658</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>839502716.1317096</v>
+        <v>461867569.4387789</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>847047331.5551817</v>
+        <v>466019528.4901491</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>854656211.2202113</v>
+        <v>470207314.6698907</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>862329842.0109829</v>
+        <v>474429428.0582992</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>870067604.8898375</v>
+        <v>478686692.1490707</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>877869832.8766556</v>
+        <v>482979629.9261686</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>885735454.8435535</v>
+        <v>487306506.0809376</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>893664966.9695873</v>
+        <v>491669139.6227609</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>901658750.3707192</v>
+        <v>496067293.8343312</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>909716537.2315648</v>
+        <v>500499504.6857389</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>917840131.3539323</v>
+        <v>504968982.1383672</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>926029085.1137587</v>
+        <v>509475068.2084013</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>934284508.7243842</v>
+        <v>514017225.47786</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>942608223.7172015</v>
+        <v>518597793.8705942</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>951001254.0706381</v>
+        <v>523215670.8466437</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>959465271.0974717</v>
+        <v>527873033.5741343</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>968002577.4914129</v>
+        <v>532569492.9459134</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>976615018.620796</v>
+        <v>537308118.5602645</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>985304254.3759797</v>
+        <v>542088657.6163274</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>994073773.8505707</v>
+        <v>546913177.1900285</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1002925928.330789</v>
+        <v>551783549.6269263</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1011863209.480592</v>
+        <v>556700246.4868972</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1020889456.24562</v>
+        <v>561668101.7079086</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1030009226.64931</v>
+        <v>566685730.4634061</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1039226263.15739</v>
+        <v>571757191.8918935</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1048543935.978758</v>
+        <v>576883563.148641</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1057967653.300545</v>
+        <v>582068222.6635234</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1067502049.4524</v>
+        <v>587314165.2251964</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1077151652.35805</v>
+        <v>592622933.8217688</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1086922915.236811</v>
+        <v>597998791.3950351</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1096821836.464877</v>
+        <v>603444366.6562929</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1106853832.146315</v>
+        <v>608964360.9778285</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1117026157.511539</v>
+        <v>614561431.6560018</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1127344478.004983</v>
+        <v>620239131.6309917</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1137818610.227703</v>
+        <v>626001753.5169804</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1148453139.725199</v>
+        <v>631853959.2231202</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1159258909.342472</v>
+        <v>637798398.0274907</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1170241803.996741</v>
+        <v>643840812.0694638</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1181411086.036848</v>
+        <v>649985843.7293341</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1192775992.614515</v>
+        <v>656237994.6971121</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1204345595.382445</v>
+        <v>662603645.7711766</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1216129188.256212</v>
+        <v>669087298.1073487</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1228137072.557866</v>
+        <v>675693353.2535474</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1240379987.822152</v>
+        <v>682429574.1658394</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1252866660.876645</v>
+        <v>689299493.8702464</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>1265610194.951208</v>
+        <v>696310573.5855901</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>1278620282.814516</v>
+        <v>703468615.4773099</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>1291908208.186325</v>
+        <v>710779769.6689758</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>1305485736.072466</v>
+        <v>718249636.6537008</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>1319364145.3996</v>
+        <v>725885312.0514337</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>1333557419.330968</v>
+        <v>733694285.8154535</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>1348075989.301785</v>
+        <v>741682090.4296327</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>1362933080.57527</v>
+        <v>749855784.6024311</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>1378141580.965685</v>
+        <v>758222591.6663154</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>1393713282.892584</v>
+        <v>766789921.8199372</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>1409662077.016157</v>
+        <v>775564755.1641281</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>1426000660.42566</v>
+        <v>784553673.4266601</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>1442743561.878215</v>
+        <v>793764810.602966</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>1459902263.463614</v>
+        <v>803205244.6380877</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>1477491618.760889</v>
+        <v>812882117.61764</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>1495524901.199831</v>
+        <v>822802953.353004</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>1514014223.136029</v>
+        <v>832974905.9764709</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>1532974690.03554</v>
+        <v>843406402.6982449</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>1552419112.41251</v>
+        <v>854103629.265949</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>1572360463.290457</v>
+        <v>865074790.6450131</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>1592812819.165274</v>
+        <v>876327195.699087</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>1613788433.553497</v>
+        <v>887867300.787801</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>1635301752.029774</v>
+        <v>899702437.90518</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>1657365166.887821</v>
+        <v>911841015.7163126</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>1679991520.628346</v>
+        <v>924289180.2028798</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>1703193933.171126</v>
+        <v>937054352.9365866</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>1726985304.646538</v>
+        <v>950142865.6653852</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>1751377660.573175</v>
+        <v>963561814.1245205</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>1776384046.078456</v>
+        <v>977318598.2100847</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>1802015547.304375</v>
+        <v>991419321.2043881</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>1828283930.573733</v>
+        <v>1005870251.175181</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>1855202216.767013</v>
+        <v>1020679018.491767</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>1882780973.380786</v>
+        <v>1035850687.938045</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>1911031102.10599</v>
+        <v>1051392402.501068</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>1939964150.099923</v>
+        <v>1067309494.489896</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>1969589886.930958</v>
+        <v>1083608147.1267</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>1999919238.288748</v>
+        <v>1100293885.686927</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>2030963234.527749</v>
+        <v>1117372684.302096</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>2062731292.241886</v>
+        <v>1134848332.031013</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>2095233603.33134</v>
+        <v>1152728933.751443</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>2128477707.29162</v>
+        <v>1171017441.841043</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>2162474625.379054</v>
+        <v>1189720429.445575</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>2197233252.00351</v>
+        <v>1208842022.729545</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>2232761397.837715</v>
+        <v>1228387238.54154</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>2269068464.648673</v>
+        <v>1248360849.372123</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>2306162089.287636</v>
+        <v>1268766434.718922</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>2344049023.858562</v>
+        <v>1289609232.052886</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>2382737395.531624</v>
+        <v>1310893330.540927</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>2422236642.495847</v>
+        <v>1332623383.759839</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>2462553817.995762</v>
+        <v>1354802167.154567</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>2503695192.776937</v>
+        <v>1377434849.351454</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>2545668471.191944</v>
+        <v>1400523636.193274</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>2588478840.658266</v>
+        <v>1424075197.201737</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>2632133628.154657</v>
+        <v>1448089807.450641</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>2676639570.984188</v>
+        <v>1472573345.673646</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>2722003484.682685</v>
+        <v>1497528282.205363</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>2768231501.295398</v>
+        <v>1522959114.836926</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>2815328675.042132</v>
+        <v>1548867003.236405</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>2863301342.110682</v>
+        <v>1575258517.762686</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>2912155970.988777</v>
+        <v>1602134107.193542</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>2961897575.32268</v>
+        <v>1629496874.788797</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>3012531568.900649</v>
+        <v>1657351105.462805</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>3064064633.04002</v>
+        <v>1685698072.302712</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>3116500969.173509</v>
+        <v>1714542059.912735</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>3169847854.871421</v>
+        <v>1743886778.143787</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>3224107476.166147</v>
+        <v>1773734435.078668</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>3279287674.94417</v>
+        <v>1804087729.124274</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>3335391917.962713</v>
+        <v>1834950530.985371</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>3392427636.813099</v>
+        <v>1866324913.23493</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>3450398509.560041</v>
+        <v>1898213119.27474</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>3509310090.789469</v>
+        <v>1930619006.712057</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>3569168873.17504</v>
+        <v>1963545443.515935</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>3629976981.900003</v>
+        <v>1996994724.894483</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>3691742223.947255</v>
+        <v>2030968199.936096</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>3754469023.988365</v>
+        <v>2065472873.528987</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>3818163124.660113</v>
+        <v>2100509408.145558</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>3882831015.356917</v>
+        <v>2136079924.889152</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>3948475618.634755</v>
+        <v>2172187265.194835</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>4015103968.111679</v>
+        <v>2208835568.93563</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>4082720780.125021</v>
+        <v>2246029456.974202</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>4151333498.599977</v>
+        <v>2283771439.04429</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>4220945891.942604</v>
+        <v>2322060655.503457</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>4291564789.964384</v>
+        <v>2360905384.917935</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>4363195834.262484</v>
+        <v>2400304863.389427</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>4435845963.382668</v>
+        <v>2440267679.045958</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>4509519843.828049</v>
+        <v>2480791662.620643</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>4584225006.702085</v>
+        <v>2521882897.38167</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>4659968349.439868</v>
+        <v>2563544712.179273</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>4736755467.13062</v>
+        <v>2605782545.079801</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>4814593517.174785</v>
+        <v>2648596691.118042</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>4893489317.728333</v>
+        <v>2691993760.983329</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>4973449358.5277</v>
+        <v>2735975045.072014</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>5054483265.222879</v>
+        <v>2780546548.659831</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>5136597903.242538</v>
+        <v>2825711665.184588</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>5219800875.257665</v>
+        <v>2871476221.04854</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>5304098377.082028</v>
+        <v>2917843265.062365</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>5389500316.219756</v>
+        <v>2964817963.447504</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>5476015650.297276</v>
+        <v>3012403350.470092</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>5563652085.63484</v>
+        <v>3060605335.407085</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>5652418738.463714</v>
+        <v>3109429545.439305</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>5742322493.711637</v>
+        <v>3158879552.218382</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>5833376616.664589</v>
+        <v>3208962506.378799</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>5925587850.701471</v>
+        <v>3259681566.005895</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>6018969440.549177</v>
+        <v>3311041778.015964</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>6113527628.656866</v>
+        <v>3363051388.606101</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>6209275824.925728</v>
+        <v>3415715478.372561</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>6306223888.360609</v>
+        <v>3469037780.87536</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>6404383191.611515</v>
+        <v>3523026970.352323</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>6503763413.40288</v>
+        <v>3577688115.057396</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>6604377436.034792</v>
+        <v>3633027496.328329</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>6706238716.17421</v>
+        <v>3689051281.115141</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>6809358591.571945</v>
+        <v>3745768369.543809</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>6913749117.523146</v>
+        <v>3803184600.956893</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>7019423626.301926</v>
+        <v>3861307106.555576</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>7126394794.347322</v>
+        <v>3920142025.882968</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>7234678330.23735</v>
+        <v>3979698092.07936</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>7344287848.658573</v>
+        <v>4039982453.13007</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>7455236578.522098</v>
+        <v>4101004463.932307</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>7567539883.399546</v>
+        <v>4162772459.347004</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>7681212805.83008</v>
+        <v>4225290825.803278</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>7796270439.220373</v>
+        <v>4288573356.733921</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>7912729446.925823</v>
+        <v>4352625315.445606</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>8030606783.492876</v>
+        <v>4417457117.186022</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>8149916718.716896</v>
+        <v>4483076164.953304</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>8270676787.050383</v>
+        <v>4549494255.179643</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>8392905029.148075</v>
+        <v>4616717616.094799</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>8516618422.912101</v>
+        <v>4684758859.548054</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>8641835188.734783</v>
+        <v>4753627490.807617</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>8768572982.566509</v>
+        <v>4823330764.92515</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>8896853176.799389</v>
+        <v>4893882810.535757</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>9026690864.230366</v>
+        <v>4965291674.782967</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>9158108362.47883</v>
+        <v>5037569223.829914</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>9291123039.557186</v>
+        <v>5110726508.732078</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>9425757042.983902</v>
+        <v>5184773696.122479</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>9562029052.693914</v>
+        <v>5259719765.352468</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>9651513842.653748</v>
+        <v>5308935539.700771</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>9742160095.232052</v>
+        <v>5358789526.078894</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>9833958112.445749</v>
+        <v>5409276338.119089</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>9926932017.761353</v>
+        <v>5460410456.435763</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>10021094826.05681</v>
+        <v>5512198177.873416</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>10116458263.29644</v>
+        <v>5564645599.092906</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>10213033514.6064</v>
+        <v>5617759586.299549</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>10310837197.92662</v>
+        <v>5671548932.401567</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>10409879995.88935</v>
+        <v>5726019501.529619</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>10510175824.17319</v>
+        <v>5781180414.932554</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>10611738700.7477</v>
+        <v>5837036315.466965</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>10714580414.22521</v>
+        <v>5893597052.950621</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>10818716611.25568</v>
+        <v>5950870904.174408</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>10924160400.007</v>
+        <v>6008862302.465166</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>11030925813.60017</v>
+        <v>6067578909.064528</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>11139025648.60834</v>
+        <v>6127030959.626908</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>11248472701.35888</v>
+        <v>6187224516.335678</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>11359282445.34098</v>
+        <v>6248166206.56006</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>11471468879.46521</v>
+        <v>6309865335.219372</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>11585042348.70998</v>
+        <v>6372327130.84735</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>11700018285.03927</v>
+        <v>6435559359.052924</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>11816409498.39276</v>
+        <v>6499570423.692411</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>11934228467.13881</v>
+        <v>6564368012.880013</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>12053488665.82514</v>
+        <v>6629957532.817268</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>12174202148.87884</v>
+        <v>6696343751.125322</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>12296378359.80694</v>
+        <v>6763537761.979956</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>12420031140.54482</v>
+        <v>6831543805.331593</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>12545171740.4595</v>
+        <v>6900366631.107965</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>12671808488.74183</v>
+        <v>6970014817.66074</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>12799954369.25679</v>
+        <v>7040490563.204361</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>12929619128.61821</v>
+        <v>7111801956.248398</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>13060810786.15044</v>
+        <v>7183954017.545891</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>13193538046.96638</v>
+        <v>7256950467.185101</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>13327809120.28487</v>
+        <v>7330793853.484192</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>13463630320.72641</v>
+        <v>7405491406.18646</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>13601008559.50691</v>
+        <v>7481045327.364447</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>13739949683.37833</v>
+        <v>7557459204.270604</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>13880460196.8125</v>
+        <v>7634734371.985781</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>14022543724.49766</v>
+        <v>7712875737.621984</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>14166201467.14355</v>
+        <v>7791884186.689099</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>14311436854.90554</v>
+        <v>7871760007.508135</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>14458251385.34801</v>
+        <v>7952503532.445218</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>14606643869.42954</v>
+        <v>8034116545.456255</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>14756613681.25111</v>
+        <v>8116595817.391864</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>14908157830.22141</v>
+        <v>8199942909.95172</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>15061276299.82008</v>
+        <v>8284153942.338792</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>15215963568.82855</v>
+        <v>8369227133.39886</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>15372211768.73046</v>
+        <v>8455159423.755797</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>15530014599.45533</v>
+        <v>8541947916.391695</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>15689367271.00768</v>
+        <v>8629586902.197281</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>15850255793.62834</v>
+        <v>8718072609.492413</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>16012673364.78719</v>
+        <v>8807396621.000624</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>16176605246.05039</v>
+        <v>8897553398.172913</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>16342037280.17052</v>
+        <v>8988535643.398663</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>16508951872.44884</v>
+        <v>9080333494.991497</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>16669064736.37718</v>
+        <v>9168390512.20859</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>16830557356.94462</v>
+        <v>9257206116.074806</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>16993408682.96453</v>
+        <v>9346769053.553154</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>17157595326.86044</v>
+        <v>9437067317.328751</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>17323098449.85205</v>
+        <v>9528088133.992226</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>17489891832.47589</v>
+        <v>9619818360.692108</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>17657950986.37</v>
+        <v>9712245906.276161</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>17827247501.04427</v>
+        <v>9805354246.360771</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>17997751605.21301</v>
+        <v>9899126556.206245</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>18169434772.45998</v>
+        <v>9993547030.401628</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>18342264101.30741</v>
+        <v>10088597955.13622</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>18516205405.32536</v>
+        <v>10184261001.81424</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>18691223626.91843</v>
+        <v>10280516698.1761</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>18867283750.95123</v>
+        <v>10377344444.93914</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>19044344827.91248</v>
+        <v>10474722934.72807</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>19214780822.63718</v>
+        <v>10568458141.52811</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>19386091533.66333</v>
+        <v>10662673391.03278</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>19558233067.56683</v>
+        <v>10757346310.12595</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>19731561610.28301</v>
+        <v>10852668055.91623</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>19905622312.04094</v>
+        <v>10948393093.03096</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>20080369151.4651</v>
+        <v>11044495487.04193</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>20255754490.55876</v>
+        <v>11140948666.82326</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>20431730115.05769</v>
+        <v>11237727233.05403</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>20608246532.24428</v>
+        <v>11334803878.60481</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>20785254544.87842</v>
+        <v>11432150171.23074</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>20989426660.6438</v>
+        <v>11544436685.3252</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>21194100244.37227</v>
+        <v>11656999559.47934</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>21399217835.1313</v>
+        <v>11769806177.11273</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>21604718592.32121</v>
+        <v>11882823140.90899</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>21810541897.74754</v>
+        <v>11996018491.71597</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>22016626165.48265</v>
+        <v>12247659593.10425</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>22222246924.7672</v>
+        <v>12499512027.1235</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>22420228634.88807</v>
+        <v>12747479249.46506</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>22592302408.8978</v>
+        <v>12981003665.55003</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>22717179242.82353</v>
+        <v>13187487607.925</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>22777164738.90178</v>
+        <v>13354511853.73323</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>22770733140.35091</v>
+        <v>13480979753.44808</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>22703465022.43083</v>
+        <v>13568997811.5219</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>22586844070.9185</v>
+        <v>13624408651.44911</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>22434720683.50644</v>
+        <v>13654798218.80721</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>22260777719.85202</v>
+        <v>13667989105.63844</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>22077069022.61277</v>
+        <v>13671112763.49836</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>21893379481.88584</v>
+        <v>13670158056.37704</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>21717129595.13636</v>
+        <v>13669840115.37757</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>21553567568.84775</v>
+        <v>13673656963.40067</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>21189103409.30684</v>
+        <v>13467041284.52364</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>20853071188.09725</v>
+        <v>13278944607.60011</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>20545536818.40018</v>
+        <v>13109486218.88371</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>20265653749.32735</v>
+        <v>12958168564.63334</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>20011965417.10542</v>
+        <v>12824087140.35228</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>19782647100.52662</v>
+        <v>12706081255.10173</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>19575684480.59135</v>
+        <v>12602858975.80625</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>19388996129.52087</v>
+        <v>12513072789.89103</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>19220524300.78172</v>
+        <v>12435389730.30663</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>19068292605.44265</v>
+        <v>12368524397.3098</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>18954410367.63439</v>
+        <v>12335229312.60826</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>18848520198.8198</v>
+        <v>12305743570.31636</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>18749770811.24859</v>
+        <v>12279762352.34975</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>18657223439.7995</v>
+        <v>12256837986.74034</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>18570024509.4989</v>
+        <v>12236559853.8424</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>18487403616.63496</v>
+        <v>12218553937.65773</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>18406659397.01471</v>
+        <v>12201131615.39745</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>18305746238.34754</v>
+        <v>12169474772.42032</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>18130337034.45636</v>
+        <v>12086691034.92783</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>17819187322.62203</v>
+        <v>11910797394.89507</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>17334797582.22181</v>
+        <v>11615614809.26955</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>16673443528.59152</v>
+        <v>11197816158.98366</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>15858624430.64947</v>
+        <v>10672712927.22142</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>14929015528.88927</v>
+        <v>10066169640.67906</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>13927727834.41638</v>
+        <v>9407323759.746433</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>12895158204.32423</v>
+        <v>8723681647.201653</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>11865242576.96154</v>
+        <v>8038513250.756106</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>10864190273.75394</v>
+        <v>7369932273.445302</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>9910689879.367279</v>
+        <v>6730991374.946045</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>9016881826.910744</v>
+        <v>6130304697.203419</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>8189588641.12586</v>
+        <v>5572864197.038662</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>7431558579.599329</v>
+        <v>5060869174.482237</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>6742560944.081985</v>
+        <v>4594458877.897345</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>6120300757.174704</v>
+        <v>4172335432.302469</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>5561138475.266146</v>
+        <v>3792256254.062337</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>5060647885.127899</v>
+        <v>3451405095.120279</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>4614012999.621664</v>
+        <v>3146670779.32694</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>4216314158.99991</v>
+        <v>2874847893.352695</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>3862727722.349366</v>
+        <v>2632769057.937357</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>3548652895.365808</v>
+        <v>2417399811.892248</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>3269785818.115384</v>
+        <v>2225889179.878129</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>3022163689.216499</v>
+        <v>2055601947.902932</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>2802176627.387056</v>
+        <v>1904130186.444674</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>2606569618.139407</v>
+        <v>1769298279.053267</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>2432422565.319032</v>
+        <v>1649149867.50848</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>2277135710.873278</v>
+        <v>1541939305.501584</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>2138403001.916269</v>
+        <v>1446112004.270244</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>2014185370.686374</v>
+        <v>1360293687.463146</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>1902688355.345699</v>
+        <v>1283271078.763876</v>
       </c>
     </row>
     <row r="452">
